--- a/Docs/Planning.xlsx
+++ b/Docs/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,22 +37,25 @@
     <t xml:space="preserve">Fin</t>
   </si>
   <si>
-    <t xml:space="preserve">Use-Case</t>
+    <t xml:space="preserve">Use-Case, Dom Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Représentation graphique des Use Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croquis de l'interface web</t>
   </si>
   <si>
     <t xml:space="preserve">Demander possibilité ISIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Représentation graphique des Use Cases</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création Data Bases</t>
   </si>
   <si>
-    <t xml:space="preserve">Croquis de l'interface web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirection ISIS vers le site</t>
+    <t xml:space="preserve">Front End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirection ISIS ou autre vers le site</t>
   </si>
   <si>
     <t xml:space="preserve">Interface web</t>
@@ -67,19 +70,16 @@
     <t xml:space="preserve">Tri de la recherche</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacances</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implémentation avis de Recherche</t>
   </si>
   <si>
+    <t xml:space="preserve">Création de la messagerie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création Algorithme de recherche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Système de notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création de la messagerie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création Algorithme de recherche</t>
   </si>
   <si>
     <t xml:space="preserve">Système de signalement</t>
@@ -96,9 +96,9 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,12 +130,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -148,18 +142,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFABAB"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,14 +198,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,10 +226,10 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFABAB"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF77216F"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -309,11 +289,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -322,11 +297,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Planning du Projet</a:t>
@@ -343,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.381083993066941"/>
-          <c:y val="0.199964046021093"/>
-          <c:w val="0.594697147140113"/>
-          <c:h val="0.771812080536913"/>
+          <c:x val="0.0220458553791887"/>
+          <c:y val="0.208635464733026"/>
+          <c:w val="0.594620811287478"/>
+          <c:h val="0.771678552166357"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -375,6 +345,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -389,49 +360,49 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Use-Case</c:v>
+                  <c:v>Use-Case, Dom Diagram</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Représentation graphique des Use Cases</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Croquis de l'interface web</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demander possibilité ISIS</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Représentation graphique des Use Cases</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Création Data Bases</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Croquis de l'interface web</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Redirection ISIS vers le site</c:v>
+                  <c:v>Front End</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Redirection ISIS ou autre vers le site</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Interface web</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Création du Catalogue - Filtre de Recherche</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Création du Profil utilisateur</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Tri de la recherche</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Vacances</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Implémentation avis de Recherche</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Création de la messagerie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Création Algorithme de recherche</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Système de notation</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Création de la messagerie</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Création Algorithme de recherche</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Système de signalement</c:v>
@@ -452,34 +423,34 @@
                   <c:v>43532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43534</c:v>
+                  <c:v>43539</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43539</c:v>
+                  <c:v>43546</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43546</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43553</c:v>
+                  <c:v>43560</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43567</c:v>
+                  <c:v>43560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43574</c:v>
+                  <c:v>43584</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43584</c:v>
@@ -491,10 +462,10 @@
                   <c:v>43584</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43584</c:v>
+                  <c:v>43598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43591</c:v>
+                  <c:v>43598</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43609</c:v>
@@ -527,6 +498,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="D/M/YYYY" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:dLblPos val="ctr"/>
@@ -559,49 +567,49 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Use-Case</c:v>
+                  <c:v>Use-Case, Dom Diagram</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Représentation graphique des Use Cases</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Croquis de l'interface web</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demander possibilité ISIS</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Représentation graphique des Use Cases</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Création Data Bases</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Croquis de l'interface web</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Redirection ISIS vers le site</c:v>
+                  <c:v>Front End</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Redirection ISIS ou autre vers le site</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Interface web</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Création du Catalogue - Filtre de Recherche</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Création du Profil utilisateur</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Tri de la recherche</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Vacances</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Implémentation avis de Recherche</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Création de la messagerie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Création Algorithme de recherche</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Système de notation</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Création de la messagerie</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Création Algorithme de recherche</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Système de signalement</c:v>
@@ -622,43 +630,43 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
@@ -675,20 +683,20 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="79716497"/>
-        <c:axId val="68770231"/>
+        <c:axId val="91099453"/>
+        <c:axId val="71931136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79716497"/>
+        <c:axId val="91099453"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
@@ -699,30 +707,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68770231"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="71931136"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68770231"/>
+        <c:axId val="71931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43623"/>
@@ -740,7 +744,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="0"/>
+        <c:numFmt formatCode="D/M/YYYY" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -751,25 +755,20 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79716497"/>
+        <c:crossAx val="91099453"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -800,15 +799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>569160</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>21240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>709920</xdr:colOff>
+      <xdr:colOff>709560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -816,8 +815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6741360" y="941760"/>
-        <a:ext cx="7684560" cy="6007320"/>
+        <a:off x="6260760" y="924120"/>
+        <a:ext cx="8164800" cy="6007320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -837,14 +836,14 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="n">
-        <f aca="false">MIN(B4:B10)</f>
+        <f aca="false">MIN(B4:B11)</f>
         <v>43532</v>
       </c>
     </row>
@@ -875,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
@@ -890,22 +889,22 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>43534</v>
+        <v>43539</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">B5+C5</f>
-        <v>43544</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
@@ -920,22 +919,22 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">B7+C7</f>
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -943,44 +942,36 @@
         <v>43546</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">B8+C8</f>
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>43546</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">B9+C9</f>
-        <v>43560</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>43553</v>
+        <v>43546</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="n">
         <f aca="false">B10+C10</f>
-        <v>43581</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -988,26 +979,26 @@
         <v>43553</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="n">
         <f aca="false">B11+C11</f>
-        <v>43567</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>43553</v>
+        <v>43560</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="n">
         <f aca="false">B12+C12</f>
-        <v>43567</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,10 +1006,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>43567</v>
+        <v>43560</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="n">
         <f aca="false">B13+C13</f>
@@ -1026,18 +1017,18 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>43574</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="B14" s="3" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <f aca="false">B14+C14</f>
-        <v>43584</v>
+        <v>43591</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,11 +1054,11 @@
         <v>43584</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="n">
         <f aca="false">B16+C16</f>
-        <v>43591</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,11 +1069,11 @@
         <v>43584</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="n">
         <f aca="false">B17+C17</f>
-        <v>43598</v>
+        <v>43591</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,14 +1081,14 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>43584</v>
+        <v>43598</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="n">
         <f aca="false">B18+C18</f>
-        <v>43591</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,14 +1096,14 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>43591</v>
+        <v>43598</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D19" s="3" t="n">
         <f aca="false">B19+C19</f>
-        <v>43598</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1124,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
